--- a/BBS report flow (version 1).xlsx
+++ b/BBS report flow (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITH\BBS-App\BBS-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75945FB5-8A3A-450B-825A-99AF147878FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6388657-A671-4DB0-B0A8-23703D37D969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FFFA8B83-F3A6-483C-B4BA-3B030823B3B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FFFA8B83-F3A6-483C-B4BA-3B030823B3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Report flow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>รายชื่อของแต่ละทีมในกลุ่ม</t>
   </si>
@@ -381,15 +381,6 @@
     <t>Wait</t>
   </si>
   <si>
-    <t>Inprocess</t>
-  </si>
-  <si>
-    <t>พฤติกรรมที่ปลอดภัย</t>
-  </si>
-  <si>
-    <t>พฤติกรรมที่ไม่ปลอดภัย</t>
-  </si>
-  <si>
     <t>page menu ที่ให้กรอกรหัสพนักงานแล้วเลือกว่าจะกรอกฟอร์มหรือดูสรุปรายงาน</t>
   </si>
   <si>
@@ -473,7 +464,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +504,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +777,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -811,18 +808,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -845,7 +832,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -853,9 +839,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -869,15 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -888,15 +863,42 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11157,8 +11159,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:K88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11184,281 +11186,281 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="15">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="57">
         <v>1</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="59">
         <v>1</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="61" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="21">
         <v>1</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="62" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15">
-      <c r="B4" s="39"/>
+      <c r="B4" s="33"/>
       <c r="D4" s="14"/>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
       <c r="G4" s="21">
         <v>2</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="64" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15">
-      <c r="B5" s="39"/>
+      <c r="B5" s="33"/>
       <c r="D5" s="14"/>
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
       <c r="G5" s="21">
         <v>3</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="68" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="17.25">
-      <c r="B6" s="39"/>
+      <c r="B6" s="33"/>
       <c r="D6" s="14"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
       <c r="G6" s="21">
         <v>4</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="69" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15">
-      <c r="B7" s="39"/>
+      <c r="B7" s="33"/>
       <c r="D7" s="14"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
       <c r="G7" s="21">
         <v>5</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="17.25">
-      <c r="B8" s="39"/>
+      <c r="B8" s="33"/>
       <c r="D8" s="14"/>
       <c r="E8" s="16"/>
       <c r="F8" s="17"/>
       <c r="G8" s="21">
         <v>6</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="70" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15">
-      <c r="B9" s="39"/>
+      <c r="B9" s="33"/>
       <c r="D9" s="14"/>
       <c r="E9" s="18"/>
       <c r="F9" s="19"/>
       <c r="G9" s="21">
         <v>7</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="69" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15">
-      <c r="B10" s="39"/>
+      <c r="B10" s="33"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="2:8" ht="15">
-      <c r="B11" s="39"/>
+      <c r="B11" s="33"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="73">
+      <c r="E11" s="59">
         <v>2</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="61" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="76" t="s">
+      <c r="H11" s="62" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15">
-      <c r="B12" s="39"/>
+      <c r="B12" s="33"/>
       <c r="D12" s="17"/>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
       <c r="G12" s="21">
         <v>2</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="68" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15">
-      <c r="B13" s="39"/>
+      <c r="B13" s="33"/>
       <c r="D13" s="17"/>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
       <c r="G13" s="21">
         <v>3</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="68" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="17.25">
-      <c r="B14" s="39"/>
+      <c r="B14" s="33"/>
       <c r="D14" s="17"/>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
       <c r="G14" s="21">
         <v>4</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="69" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15">
-      <c r="B15" s="39"/>
+      <c r="B15" s="33"/>
       <c r="D15" s="17"/>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
       <c r="G15" s="21">
         <v>5</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="17.25">
-      <c r="B16" s="39"/>
+      <c r="B16" s="33"/>
       <c r="D16" s="17"/>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
       <c r="G16" s="21">
         <v>6</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="69" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15">
-      <c r="B17" s="39"/>
+      <c r="B17" s="33"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="21">
         <v>7</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="68" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="39"/>
+      <c r="B18" s="33"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="46"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="2:8" ht="15">
-      <c r="B19" s="39"/>
-      <c r="E19" s="73">
+      <c r="B19" s="33"/>
+      <c r="E19" s="59">
         <v>3</v>
       </c>
-      <c r="F19" s="75" t="s">
+      <c r="F19" s="61" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="21">
         <v>1</v>
       </c>
-      <c r="H19" s="76" t="s">
+      <c r="H19" s="62" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15">
-      <c r="B20" s="39"/>
+      <c r="B20" s="33"/>
       <c r="D20" s="14"/>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
       <c r="G20" s="21">
         <v>2</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="68" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15">
-      <c r="B21" s="39"/>
+      <c r="B21" s="33"/>
       <c r="D21" s="14"/>
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
       <c r="G21" s="21">
         <v>3</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="68" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="17.25">
-      <c r="B22" s="39"/>
+      <c r="B22" s="33"/>
       <c r="D22" s="14"/>
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
       <c r="G22" s="21">
         <v>4</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="69" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15">
-      <c r="B23" s="39"/>
+      <c r="B23" s="33"/>
       <c r="D23" s="14"/>
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
       <c r="G23" s="21">
         <v>5</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="68" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.25">
-      <c r="B24" s="39"/>
+      <c r="B24" s="33"/>
       <c r="D24" s="14"/>
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
       <c r="G24" s="21">
         <v>6</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="69" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15">
-      <c r="B25" s="39"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
       <c r="E25" s="18"/>
@@ -11466,857 +11468,858 @@
       <c r="G25" s="21">
         <v>7</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="68" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="39"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="13"/>
       <c r="D26" s="23"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="46"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="40"/>
     </row>
     <row r="27" spans="2:8" ht="25.5">
-      <c r="B27" s="39"/>
-      <c r="C27" s="73">
+      <c r="B27" s="33"/>
+      <c r="C27" s="59">
         <v>2</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="71">
+      <c r="E27" s="57">
         <v>1</v>
       </c>
-      <c r="F27" s="75" t="s">
+      <c r="F27" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="44">
         <v>1</v>
       </c>
-      <c r="H27" s="77" t="s">
+      <c r="H27" s="63" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15">
-      <c r="B28" s="39"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="16"/>
       <c r="D28" s="22"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="51">
+      <c r="G28" s="44">
         <v>2</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="68" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15">
-      <c r="B29" s="39"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="16"/>
       <c r="D29" s="22"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="51">
+      <c r="G29" s="44">
         <v>3</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="68" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="17.25">
-      <c r="B30" s="39"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="16"/>
       <c r="D30" s="22"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="51">
+      <c r="G30" s="44">
         <v>4</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="68" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15">
-      <c r="B31" s="39"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="16"/>
       <c r="D31" s="22"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="51">
+      <c r="G31" s="44">
         <v>5</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="68" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="17.25">
-      <c r="B32" s="39"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="16"/>
       <c r="D32" s="22"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="51">
+      <c r="G32" s="44">
         <v>6</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15">
-      <c r="B33" s="39"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="16"/>
       <c r="D33" s="22"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="51">
+      <c r="G33" s="44">
         <v>7</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="68" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15">
-      <c r="B34" s="39"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="16"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="49"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="2:8" ht="15">
-      <c r="B35" s="39"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="16"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="71">
+      <c r="E35" s="57">
         <v>2</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="51">
+      <c r="G35" s="44">
         <v>1</v>
       </c>
-      <c r="H35" s="76" t="s">
+      <c r="H35" s="62" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15">
-      <c r="B36" s="39"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="16"/>
       <c r="D36" s="22"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="51">
+      <c r="G36" s="44">
         <v>2</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="68" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15">
-      <c r="B37" s="39"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="16"/>
       <c r="D37" s="22"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="51">
+      <c r="G37" s="44">
         <v>3</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="68" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="17.25">
-      <c r="B38" s="39"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="16"/>
       <c r="D38" s="22"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="51">
+      <c r="G38" s="44">
         <v>4</v>
       </c>
-      <c r="H38" s="26" t="s">
+      <c r="H38" s="68" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15">
-      <c r="B39" s="39"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="16"/>
       <c r="D39" s="22"/>
       <c r="F39" s="17"/>
-      <c r="G39" s="51">
+      <c r="G39" s="44">
         <v>5</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="68" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="17.25">
-      <c r="B40" s="39"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="16"/>
       <c r="D40" s="22"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="51">
+      <c r="G40" s="44">
         <v>6</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15">
-      <c r="B41" s="39"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="16"/>
       <c r="D41" s="22"/>
-      <c r="E41" s="36"/>
+      <c r="E41" s="30"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="51">
+      <c r="G41" s="44">
         <v>7</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="68" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="15">
-      <c r="B42" s="39"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="16"/>
       <c r="D42" s="22"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="49"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="2:8" ht="18">
-      <c r="B43" s="39"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="16"/>
-      <c r="E43" s="73">
+      <c r="E43" s="59">
         <v>3</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="44">
         <v>1</v>
       </c>
-      <c r="H43" s="54" t="s">
+      <c r="H43" s="71" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15">
-      <c r="B44" s="39"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="50"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="51">
+      <c r="G44" s="44">
         <v>2</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="68" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="15">
-      <c r="B45" s="39"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="50"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="51">
+      <c r="G45" s="44">
         <v>3</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="H45" s="68" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="17.25">
-      <c r="B46" s="39"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="50"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="51">
+      <c r="G46" s="44">
         <v>4</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="68" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="15">
-      <c r="B47" s="39"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="50"/>
+      <c r="D47" s="43"/>
       <c r="E47" s="16"/>
       <c r="F47" s="17"/>
-      <c r="G47" s="51">
+      <c r="G47" s="44">
         <v>5</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H47" s="68" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="17.25">
-      <c r="B48" s="39"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="16"/>
-      <c r="D48" s="50"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="16"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="51">
+      <c r="G48" s="44">
         <v>6</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="15">
-      <c r="B49" s="39"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="18"/>
-      <c r="D49" s="57"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="18"/>
       <c r="F49" s="19"/>
-      <c r="G49" s="51">
+      <c r="G49" s="44">
         <v>7</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="H49" s="68" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="15">
-      <c r="B50" s="39"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="34"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="13"/>
       <c r="F50" s="23"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="49"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="2:11" ht="15">
-      <c r="B51" s="39"/>
-      <c r="C51" s="35">
+      <c r="B51" s="33"/>
+      <c r="C51" s="29">
         <v>3</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="73">
+      <c r="E51" s="59">
         <v>1</v>
       </c>
-      <c r="F51" s="75" t="s">
+      <c r="F51" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="51">
+      <c r="G51" s="44">
         <v>1</v>
       </c>
-      <c r="H51" s="76" t="s">
+      <c r="H51" s="68" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="15">
-      <c r="B52" s="39"/>
+      <c r="B52" s="33"/>
       <c r="D52" s="14"/>
       <c r="E52" s="16"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="51">
+      <c r="G52" s="44">
         <v>2</v>
       </c>
-      <c r="H52" s="26" t="s">
+      <c r="H52" s="68" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="39"/>
+      <c r="B53" s="33"/>
       <c r="D53" s="14"/>
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="51">
+      <c r="G53" s="44">
         <v>3</v>
       </c>
-      <c r="H53" s="59" t="s">
+      <c r="H53" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="I53" s="61"/>
-      <c r="J53" s="59">
+      <c r="I53" s="53"/>
+      <c r="J53" s="51">
         <v>1</v>
       </c>
-      <c r="K53" s="60" t="s">
+      <c r="K53" s="52" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="15">
-      <c r="B54" s="39"/>
+      <c r="B54" s="33"/>
       <c r="D54" s="14"/>
       <c r="E54" s="16"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="51">
+      <c r="G54" s="44">
         <v>4</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="J54" s="59">
+      <c r="J54" s="51">
         <v>2</v>
       </c>
-      <c r="K54" s="60" t="s">
+      <c r="K54" s="52" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="17.25">
-      <c r="B55" s="39"/>
+      <c r="B55" s="33"/>
       <c r="D55" s="14"/>
       <c r="E55" s="16"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="51">
+      <c r="G55" s="44">
         <v>5</v>
       </c>
-      <c r="H55" s="26" t="s">
+      <c r="H55" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="J55" s="59">
+      <c r="J55" s="51">
         <v>3</v>
       </c>
-      <c r="K55" s="60" t="s">
+      <c r="K55" s="52" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="15">
-      <c r="B56" s="39"/>
+      <c r="B56" s="33"/>
       <c r="D56" s="14"/>
       <c r="E56" s="16"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="51">
+      <c r="G56" s="44">
         <v>6</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="J56" s="59">
+      <c r="J56" s="51">
         <v>4</v>
       </c>
-      <c r="K56" s="60" t="s">
+      <c r="K56" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="17.25">
-      <c r="B57" s="39"/>
+      <c r="B57" s="33"/>
       <c r="D57" s="14"/>
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
-      <c r="G57" s="51">
+      <c r="G57" s="44">
         <v>7</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="J57" s="59">
+      <c r="J57" s="51">
         <v>5</v>
       </c>
-      <c r="K57" s="60" t="s">
+      <c r="K57" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="15">
-      <c r="B58" s="39"/>
+      <c r="B58" s="33"/>
       <c r="D58" s="14"/>
       <c r="E58" s="18"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="51">
+      <c r="G58" s="44">
         <v>8</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H58" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="J58" s="59">
+      <c r="J58" s="51">
         <v>6</v>
       </c>
-      <c r="K58" s="60" t="s">
+      <c r="K58" s="52" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="15">
-      <c r="B59" s="39"/>
+      <c r="B59" s="33"/>
       <c r="D59" s="17"/>
       <c r="E59" s="13"/>
       <c r="F59" s="23"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="49"/>
-      <c r="J59" s="59">
+      <c r="G59" s="45"/>
+      <c r="H59" s="42"/>
+      <c r="J59" s="51">
         <v>7</v>
       </c>
-      <c r="K59" s="60" t="s">
+      <c r="K59" s="52" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="60" spans="2:11" ht="15">
-      <c r="B60" s="39"/>
+      <c r="B60" s="33"/>
       <c r="D60" s="14"/>
-      <c r="E60" s="73">
+      <c r="E60" s="59">
         <v>2</v>
       </c>
-      <c r="F60" s="75" t="s">
+      <c r="F60" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="51">
+      <c r="G60" s="44">
         <v>1</v>
       </c>
-      <c r="H60" s="76" t="s">
+      <c r="H60" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="J60" s="59">
+      <c r="J60" s="51">
         <v>8</v>
       </c>
-      <c r="K60" s="60" t="s">
+      <c r="K60" s="52" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="15">
-      <c r="B61" s="39"/>
+      <c r="B61" s="33"/>
       <c r="D61" s="14"/>
       <c r="E61" s="16"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="51">
+      <c r="G61" s="44">
         <v>2</v>
       </c>
-      <c r="H61" s="26" t="s">
+      <c r="H61" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="J61" s="59">
+      <c r="J61" s="51">
         <v>9</v>
       </c>
-      <c r="K61" s="60" t="s">
+      <c r="K61" s="52" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="15">
-      <c r="B62" s="39"/>
+      <c r="B62" s="33"/>
       <c r="D62" s="14"/>
       <c r="E62" s="16"/>
       <c r="F62" s="17"/>
-      <c r="G62" s="51">
+      <c r="G62" s="44">
         <v>3</v>
       </c>
-      <c r="H62" s="26" t="s">
+      <c r="H62" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="J62" s="59">
+      <c r="J62" s="51">
         <v>10</v>
       </c>
-      <c r="K62" s="60" t="s">
+      <c r="K62" s="52" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="63" spans="2:11" ht="17.25">
-      <c r="B63" s="39"/>
+      <c r="B63" s="33"/>
       <c r="D63" s="14"/>
       <c r="E63" s="16"/>
       <c r="F63" s="17"/>
-      <c r="G63" s="51">
+      <c r="G63" s="44">
         <v>4</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="H63" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="J63" s="59">
+      <c r="J63" s="51">
         <v>11</v>
       </c>
-      <c r="K63" s="60" t="s">
+      <c r="K63" s="52" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="64" spans="2:11" ht="15">
-      <c r="B64" s="39"/>
+      <c r="B64" s="33"/>
       <c r="D64" s="14"/>
       <c r="E64" s="16"/>
       <c r="F64" s="17"/>
-      <c r="G64" s="51">
+      <c r="G64" s="44">
         <v>5</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="68" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="17.25">
-      <c r="B65" s="39"/>
+      <c r="B65" s="33"/>
       <c r="D65" s="14"/>
       <c r="E65" s="16"/>
       <c r="F65" s="17"/>
-      <c r="G65" s="51">
+      <c r="G65" s="44">
         <v>6</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="15">
-      <c r="B66" s="39"/>
+      <c r="B66" s="33"/>
       <c r="D66" s="14"/>
       <c r="E66" s="18"/>
       <c r="F66" s="19"/>
-      <c r="G66" s="51">
+      <c r="G66" s="44">
         <v>7</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="H66" s="68" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="67" spans="2:9" ht="15">
-      <c r="B67" s="39"/>
+      <c r="B67" s="33"/>
       <c r="D67" s="17"/>
       <c r="E67" s="13"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="49"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="42"/>
     </row>
     <row r="68" spans="2:9" ht="18">
-      <c r="B68" s="39"/>
-      <c r="E68" s="73">
+      <c r="B68" s="33"/>
+      <c r="E68" s="59">
         <v>3</v>
       </c>
-      <c r="F68" s="75" t="s">
+      <c r="F68" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="G68" s="51">
+      <c r="G68" s="44">
         <v>1</v>
       </c>
-      <c r="H68" s="54" t="s">
+      <c r="H68" s="71" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="69" spans="2:9" ht="15">
-      <c r="B69" s="39"/>
+      <c r="B69" s="33"/>
       <c r="D69" s="14"/>
       <c r="E69" s="16"/>
       <c r="F69" s="17"/>
-      <c r="G69" s="51">
+      <c r="G69" s="44">
         <v>2</v>
       </c>
-      <c r="H69" s="26" t="s">
+      <c r="H69" s="68" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="15">
-      <c r="B70" s="39"/>
+      <c r="B70" s="33"/>
       <c r="D70" s="14"/>
       <c r="E70" s="16"/>
       <c r="F70" s="17"/>
-      <c r="G70" s="51">
+      <c r="G70" s="44">
         <v>3</v>
       </c>
-      <c r="H70" s="26" t="s">
+      <c r="H70" s="68" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="17.25">
-      <c r="B71" s="39"/>
+      <c r="B71" s="33"/>
       <c r="D71" s="14"/>
       <c r="E71" s="16"/>
       <c r="F71" s="17"/>
-      <c r="G71" s="51">
+      <c r="G71" s="44">
         <v>4</v>
       </c>
-      <c r="H71" s="26" t="s">
+      <c r="H71" s="68" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15">
-      <c r="B72" s="39"/>
+      <c r="B72" s="33"/>
       <c r="D72" s="14"/>
       <c r="E72" s="16"/>
       <c r="F72" s="17"/>
-      <c r="G72" s="51">
+      <c r="G72" s="44">
         <v>5</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H72" s="68" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="73" spans="2:9" ht="17.25">
-      <c r="B73" s="39"/>
+      <c r="B73" s="33"/>
       <c r="D73" s="14"/>
       <c r="E73" s="16"/>
       <c r="F73" s="17"/>
-      <c r="G73" s="51">
+      <c r="G73" s="44">
         <v>6</v>
       </c>
-      <c r="H73" s="26" t="s">
+      <c r="H73" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="15">
-      <c r="B74" s="39"/>
+      <c r="B74" s="33"/>
       <c r="D74" s="14"/>
       <c r="E74" s="18"/>
       <c r="F74" s="19"/>
-      <c r="G74" s="51">
+      <c r="G74" s="44">
         <v>7</v>
       </c>
-      <c r="H74" s="26" t="s">
+      <c r="H74" s="68" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="15">
-      <c r="B75" s="39"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="18"/>
       <c r="D75" s="19"/>
       <c r="E75" s="13"/>
       <c r="F75" s="23"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="63"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="55"/>
     </row>
     <row r="76" spans="2:9" ht="15">
-      <c r="B76" s="39"/>
-      <c r="C76" s="35">
+      <c r="B76" s="33"/>
+      <c r="C76" s="29">
         <v>4</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E76" s="68">
+      <c r="E76" s="56">
         <v>1</v>
       </c>
-      <c r="F76" s="69" t="s">
+      <c r="F76" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="G76" s="70"/>
-      <c r="H76" s="67"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="75"/>
     </row>
     <row r="77" spans="2:9" ht="15">
-      <c r="B77" s="39"/>
+      <c r="B77" s="33"/>
       <c r="D77" s="14"/>
       <c r="E77" s="16">
         <v>2</v>
       </c>
-      <c r="F77" s="64" t="s">
+      <c r="F77" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="66">
+      <c r="G77" s="77">
         <v>1</v>
       </c>
-      <c r="H77" s="65" t="s">
+      <c r="H77" s="78" t="s">
         <v>20</v>
       </c>
       <c r="I77" s="25"/>
     </row>
     <row r="78" spans="2:9">
-      <c r="B78" s="39"/>
+      <c r="B78" s="33"/>
       <c r="D78" s="14"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="67">
+      <c r="F78" s="79"/>
+      <c r="G78" s="75">
         <v>2</v>
       </c>
-      <c r="H78" s="31" t="s">
+      <c r="H78" s="80" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="79" spans="2:9">
-      <c r="B79" s="39"/>
+      <c r="B79" s="33"/>
       <c r="E79" s="16"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="67">
+      <c r="F79" s="81"/>
+      <c r="G79" s="75">
         <v>3</v>
       </c>
-      <c r="H79" s="31" t="s">
+      <c r="H79" s="80" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="80" spans="2:9">
-      <c r="B80" s="39"/>
+      <c r="B80" s="33"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="67">
+      <c r="F80" s="81"/>
+      <c r="G80" s="75">
         <v>4</v>
       </c>
-      <c r="H80" s="31" t="s">
+      <c r="H80" s="80" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="39"/>
+      <c r="B81" s="33"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="67">
+      <c r="F81" s="81"/>
+      <c r="G81" s="75">
         <v>5</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="H81" s="80" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="39"/>
+      <c r="B82" s="33"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="67">
+      <c r="F82" s="81"/>
+      <c r="G82" s="75">
         <v>6</v>
       </c>
-      <c r="H82" s="31" t="s">
+      <c r="H82" s="80" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="39"/>
+      <c r="B83" s="33"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="67">
+      <c r="F83" s="79"/>
+      <c r="G83" s="75">
         <v>7</v>
       </c>
-      <c r="H83" s="31" t="s">
+      <c r="H83" s="80" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="39"/>
+      <c r="B84" s="33"/>
       <c r="E84" s="18"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="67">
+      <c r="F84" s="82"/>
+      <c r="G84" s="75">
         <v>8</v>
       </c>
-      <c r="H84" s="32" t="s">
+      <c r="H84" s="83" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="15">
-      <c r="B85" s="39"/>
-      <c r="D85" s="28"/>
+      <c r="B85" s="33"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="20">
         <v>3</v>
       </c>
-      <c r="F85" s="26" t="s">
+      <c r="F85" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G85" s="33"/>
-      <c r="H85" s="13"/>
+      <c r="G85" s="69"/>
+      <c r="H85" s="84"/>
     </row>
     <row r="86" spans="2:8" ht="15">
-      <c r="B86" s="39"/>
-      <c r="D86" s="28"/>
+      <c r="B86" s="33"/>
+      <c r="D86" s="26"/>
       <c r="E86" s="15">
         <v>4</v>
       </c>
-      <c r="F86" s="27" t="s">
+      <c r="F86" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="G86" s="26">
+      <c r="G86" s="68">
         <v>1</v>
       </c>
-      <c r="H86" s="21" t="s">
+      <c r="H86" s="86" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="37"/>
-      <c r="D87" s="28"/>
-      <c r="G87" s="20">
+      <c r="B87" s="31"/>
+      <c r="D87" s="26"/>
+      <c r="F87" s="84"/>
+      <c r="G87" s="72">
         <v>2</v>
       </c>
-      <c r="H87" s="21" t="s">
+      <c r="H87" s="86" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="15">
-      <c r="B88" s="40"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="68">
+      <c r="B88" s="34"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="56">
         <v>5</v>
       </c>
-      <c r="F88" s="69" t="s">
+      <c r="F88" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="G88" s="70"/>
-      <c r="H88" s="67"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12333,155 +12336,147 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9" style="82"/>
-    <col min="2" max="2" width="78.75" style="83" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="82" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="82" customWidth="1"/>
-    <col min="5" max="8" width="9" style="82"/>
-    <col min="9" max="9" width="67.75" style="82" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5" style="82" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" style="82" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="82" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="82" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="82"/>
+    <col min="1" max="1" width="9" style="66"/>
+    <col min="2" max="2" width="78.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="66" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="66" customWidth="1"/>
+    <col min="5" max="8" width="9" style="66"/>
+    <col min="9" max="9" width="67.75" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="66" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="65" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="82">
+      <c r="A2" s="66">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="66">
         <v>3</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="66" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="82">
+      <c r="A3" s="66">
         <v>2</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="66">
         <v>2</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="66">
+        <v>3</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="66">
+        <v>2</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="66">
+        <v>4</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="66">
+        <v>3</v>
+      </c>
+      <c r="D5" s="66" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="82">
-        <v>3</v>
-      </c>
-      <c r="B4" s="83" t="s">
+      <c r="E5" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="66">
+        <v>5</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="66">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="66">
+        <v>6</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="66">
+        <v>2</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="66">
+        <v>7</v>
+      </c>
+      <c r="B8" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C8" s="66">
         <v>2</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D8" s="66" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="82">
-        <v>4</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="82">
-        <v>3</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="82">
-        <v>5</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="82">
-        <v>2</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="82">
-        <v>6</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="82">
-        <v>2</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="82">
-        <v>7</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="82">
-        <v>2</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/BBS report flow (version 1).xlsx
+++ b/BBS report flow (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITH\BBS-App\BBS-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6388657-A671-4DB0-B0A8-23703D37D969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40477E1A-154E-4F46-A07A-3AE12AEECFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FFFA8B83-F3A6-483C-B4BA-3B030823B3B1}"/>
+    <workbookView xWindow="28830" yWindow="1590" windowWidth="28770" windowHeight="13890" activeTab="2" xr2:uid="{FFFA8B83-F3A6-483C-B4BA-3B030823B3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Report flow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>รายชื่อของแต่ละทีมในกลุ่ม</t>
   </si>
@@ -391,6 +391,30 @@
   </si>
   <si>
     <t>ทำหน้าให้ พนักงานตรวจเช็คสรุปผลการรายงานของตัวเองได้</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ส่งข้อมูลไปบันทึก GG sheet </t>
+  </si>
+  <si>
+    <t>ดึงข้อมูลสำหรับ form</t>
+  </si>
+  <si>
+    <t>อัพโหลดรูปภาพ</t>
+  </si>
+  <si>
+    <t>ดึงข้อมูลสำหรับ Employeer</t>
+  </si>
+  <si>
+    <t>ดึงข้อมูลสำหรับ Admin</t>
+  </si>
+  <si>
+    <t>อัพเดทการตั้งค่า form</t>
+  </si>
+  <si>
+    <t>อัพเดทข้อมูลในส่วน Admin</t>
+  </si>
+  <si>
+    <t>นำข้อมูลพนักงานมาลง Database</t>
   </si>
 </sst>
 </file>
@@ -12333,10 +12357,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F089E165-4FFF-4F75-95FD-A1C0AB852418}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -12427,10 +12451,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="66">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -12477,6 +12498,136 @@
       </c>
       <c r="D8" s="66" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="66">
+        <v>8</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="66">
+        <v>2</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="66">
+        <v>9</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="66">
+        <v>2</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="66">
+        <v>10</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="66">
+        <v>2</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="66">
+        <v>11</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="66">
+        <v>2</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="66">
+        <v>12</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="66">
+        <v>2</v>
+      </c>
+      <c r="D13" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="66">
+        <v>13</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="66">
+        <v>2</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="66">
+        <v>14</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="66">
+        <v>2</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="66">
+        <v>15</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="66">
+        <v>1</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/BBS report flow (version 1).xlsx
+++ b/BBS report flow (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITH\BBS-App\BBS-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40477E1A-154E-4F46-A07A-3AE12AEECFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CEBBED-892D-49E4-8954-2FA74435EC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="1590" windowWidth="28770" windowHeight="13890" activeTab="2" xr2:uid="{FFFA8B83-F3A6-483C-B4BA-3B030823B3B1}"/>
+    <workbookView xWindow="34410" yWindow="1680" windowWidth="17400" windowHeight="13890" activeTab="2" xr2:uid="{FFFA8B83-F3A6-483C-B4BA-3B030823B3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Report flow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
   <si>
     <t>รายชื่อของแต่ละทีมในกลุ่ม</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t>นำข้อมูลพนักงานมาลง Database</t>
+  </si>
+  <si>
+    <t>ดึง id รูปภาพมาเป็น url ในการเปิดไฟล์</t>
   </si>
 </sst>
 </file>
@@ -12357,10 +12360,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F089E165-4FFF-4F75-95FD-A1C0AB852418}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -12525,7 +12528,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E10" s="66">
         <v>1</v>
@@ -12542,7 +12545,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E11" s="66">
         <v>2</v>
@@ -12559,7 +12562,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E12" s="66">
         <v>3</v>
@@ -12576,7 +12579,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13" s="66">
         <v>4</v>
@@ -12593,7 +12596,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E14" s="66">
         <v>5</v>
@@ -12627,6 +12630,20 @@
         <v>1</v>
       </c>
       <c r="D16" s="66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="66">
+        <v>16</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="66">
+        <v>1</v>
+      </c>
+      <c r="D17" s="66" t="s">
         <v>77</v>
       </c>
     </row>

--- a/BBS report flow (version 1).xlsx
+++ b/BBS report flow (version 1).xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITH\BBS-App\BBS-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CEBBED-892D-49E4-8954-2FA74435EC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7C84A7-5210-433F-B9D8-E2D5B73484EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34410" yWindow="1680" windowWidth="17400" windowHeight="13890" activeTab="2" xr2:uid="{FFFA8B83-F3A6-483C-B4BA-3B030823B3B1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FFFA8B83-F3A6-483C-B4BA-3B030823B3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Report flow" sheetId="1" r:id="rId1"/>
     <sheet name="flow" sheetId="3" r:id="rId2"/>
     <sheet name="Work" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Work!$A$1:$G$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
   <si>
     <t>รายชื่อของแต่ละทีมในกลุ่ม</t>
   </si>
@@ -418,6 +421,57 @@
   </si>
   <si>
     <t>ดึง id รูปภาพมาเป็น url ในการเปิดไฟล์</t>
+  </si>
+  <si>
+    <t>ทำระบบ export ผลการรายงานเพื่อส่งให้กับบัญชี</t>
+  </si>
+  <si>
+    <t>เวลากดปุ่ม approve หรือ reject แล้วกด x จะเด้งไปหน้ารายละเอียด (เอาออก)</t>
+  </si>
+  <si>
+    <t>Inprocess</t>
+  </si>
+  <si>
+    <t>เปลี่ยน สรุปผลด่วนเป็น approve แล้ว</t>
+  </si>
+  <si>
+    <t>ทำส่วนสรุปรายเดือน -&gt; รายสัปดาห์ ว่าแต่ละกลุ่มส่งรายงานและได้รับการอนุมัติมาแล้วกี่ครั้ง</t>
+  </si>
+  <si>
+    <t>ในส่วนของ safety แจ้งเพื่อประเมินผลในการตัดคะแนน</t>
+  </si>
+  <si>
+    <t>ทำหน้า login / auth สำหรับ admin</t>
+  </si>
+  <si>
+    <t>Test ผลการทดสอบ</t>
+  </si>
+  <si>
+    <t>เพิ่มปุ่ม home ย้อนกลับหน้าหลัก</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>เพิ่ม alert เมื่อส่งฟอร์มสำเร็จ</t>
+  </si>
+  <si>
+    <t>หน้า สรุปรายงาน ตอนอยู่บนมือถือ padding เยอะไป</t>
+  </si>
+  <si>
+    <t>เพิ่ม alert massege เมื่อไม่พบข้อมูลพนักงาน</t>
+  </si>
+  <si>
+    <t>ดึงข้อมูล SHE ใส่ไปใน params ด้วยว่าใครเป็นคนอนุมัติ</t>
+  </si>
+  <si>
+    <t>รอคำตอบว่าถ้ารายเป็นรายบุคคล she จะทำยังไง</t>
+  </si>
+  <si>
+    <t>รอนำข้อมูลเข้าจาก she</t>
+  </si>
+  <si>
+    <t>เพิ่มรายละเอียดใน form ของ SHE ว่าแจ้งรายงานของกลุ่มใดหรือ คนใด โดยใช้ รหัส</t>
   </si>
 </sst>
 </file>
@@ -12360,19 +12414,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F089E165-4FFF-4F75-95FD-A1C0AB852418}">
-  <dimension ref="A1:M17"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="66"/>
-    <col min="2" max="2" width="78.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.625" style="67" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="66" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="66" customWidth="1"/>
-    <col min="5" max="8" width="9" style="66"/>
+    <col min="5" max="5" width="9" style="66"/>
+    <col min="6" max="6" width="9" style="66" customWidth="1"/>
+    <col min="7" max="7" width="37.75" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="66"/>
     <col min="9" max="9" width="67.75" style="66" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.5" style="66" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="66" bestFit="1" customWidth="1"/>
@@ -12401,7 +12459,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" hidden="1">
       <c r="A2" s="66">
         <v>1</v>
       </c>
@@ -12415,7 +12473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" s="66">
         <v>2</v>
       </c>
@@ -12429,7 +12487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" s="66">
         <v>3</v>
       </c>
@@ -12443,7 +12501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" s="66">
         <v>4</v>
       </c>
@@ -12457,7 +12515,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" s="66">
         <v>5</v>
       </c>
@@ -12475,7 +12533,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" hidden="1">
       <c r="A7" s="66">
         <v>6</v>
       </c>
@@ -12489,7 +12547,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" s="66">
         <v>7</v>
       </c>
@@ -12503,7 +12561,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="66">
         <v>8</v>
       </c>
@@ -12517,7 +12575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="66">
         <v>9</v>
       </c>
@@ -12534,7 +12592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="66">
         <v>10</v>
       </c>
@@ -12551,7 +12609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="66">
         <v>11</v>
       </c>
@@ -12568,7 +12626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="66">
         <v>12</v>
       </c>
@@ -12585,7 +12643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="66">
         <v>13</v>
       </c>
@@ -12602,7 +12660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="66">
         <v>14</v>
       </c>
@@ -12610,13 +12668,10 @@
         <v>87</v>
       </c>
       <c r="C15" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="66" t="s">
         <v>77</v>
-      </c>
-      <c r="E15" s="66">
-        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -12632,8 +12687,11 @@
       <c r="D16" s="66" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="G16" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="66">
         <v>16</v>
       </c>
@@ -12644,10 +12702,214 @@
         <v>1</v>
       </c>
       <c r="D17" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1">
+      <c r="A18" s="66">
+        <v>17</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="66">
+        <v>3</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1">
+      <c r="A19" s="66">
+        <v>18</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="66">
+        <v>1</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="66">
+        <v>19</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="66">
+        <v>2</v>
+      </c>
+      <c r="D20" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1">
+      <c r="A21" s="66">
+        <v>20</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="66">
+        <v>1</v>
+      </c>
+      <c r="D21" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1">
+      <c r="A22" s="66">
+        <v>21</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="66">
+        <v>3</v>
+      </c>
+      <c r="D22" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1">
+      <c r="A23" s="66">
+        <v>22</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="66">
+        <v>3</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="66">
+        <v>23</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="66">
+        <v>3</v>
+      </c>
+      <c r="D24" s="66" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="25" spans="1:7" hidden="1">
+      <c r="A25" s="66">
+        <v>24</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="66">
+        <v>1</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1">
+      <c r="A26" s="66">
+        <v>25</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="66">
+        <v>1</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1">
+      <c r="A27" s="66">
+        <v>26</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="66">
+        <v>1</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="66">
+        <v>27</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="66">
+        <v>2</v>
+      </c>
+      <c r="D28" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1">
+      <c r="A29" s="66">
+        <v>28</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="66">
+        <v>1</v>
+      </c>
+      <c r="D29" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1">
+      <c r="A30" s="66">
+        <v>29</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="66">
+        <v>2</v>
+      </c>
+      <c r="D30" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G30" xr:uid="{F089E165-4FFF-4F75-95FD-A1C0AB852418}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="15"/>
+        <filter val="19"/>
+        <filter val="23"/>
+        <filter val="27"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Inprocess"/>
+        <filter val="Wait"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="A2:F95">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$D2="reject"</formula>

--- a/BBS report flow (version 1).xlsx
+++ b/BBS report flow (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITH\BBS-App\BBS-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7C84A7-5210-433F-B9D8-E2D5B73484EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A444C1F-DE43-4CBB-A904-899814BE8AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FFFA8B83-F3A6-483C-B4BA-3B030823B3B1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Work" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Work!$A$1:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Work!$A$1:$G$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
   <si>
     <t>รายชื่อของแต่ละทีมในกลุ่ม</t>
   </si>
@@ -450,9 +450,6 @@
     <t>เพิ่มปุ่ม home ย้อนกลับหน้าหลัก</t>
   </si>
   <si>
-    <t>wait</t>
-  </si>
-  <si>
     <t>เพิ่ม alert เมื่อส่งฟอร์มสำเร็จ</t>
   </si>
   <si>
@@ -472,6 +469,18 @@
   </si>
   <si>
     <t>เพิ่มรายละเอียดใน form ของ SHE ว่าแจ้งรายงานของกลุ่มใดหรือ คนใด โดยใช้ รหัส</t>
+  </si>
+  <si>
+    <t>ทำหน้ารายงานเรื่องการถูกรายงานของ User</t>
+  </si>
+  <si>
+    <t>ตัวเลือกแผนกมาไม่ครบ</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>เพิ่มตารางจัดการการรายงานของ SHE</t>
   </si>
 </sst>
 </file>
@@ -12414,11 +12423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F089E165-4FFF-4F75-95FD-A1C0AB852418}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -12459,7 +12467,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13">
       <c r="A2" s="66">
         <v>1</v>
       </c>
@@ -12473,7 +12481,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="A3" s="66">
         <v>2</v>
       </c>
@@ -12487,7 +12495,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="A4" s="66">
         <v>3</v>
       </c>
@@ -12501,7 +12509,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13">
       <c r="A5" s="66">
         <v>4</v>
       </c>
@@ -12515,7 +12523,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="66">
         <v>5</v>
       </c>
@@ -12533,7 +12541,7 @@
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="A7" s="66">
         <v>6</v>
       </c>
@@ -12547,7 +12555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13">
       <c r="A8" s="66">
         <v>7</v>
       </c>
@@ -12561,7 +12569,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" s="66">
         <v>8</v>
       </c>
@@ -12575,7 +12583,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" s="66">
         <v>9</v>
       </c>
@@ -12592,7 +12600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11" s="66">
         <v>10</v>
       </c>
@@ -12609,7 +12617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13">
       <c r="A12" s="66">
         <v>11</v>
       </c>
@@ -12626,7 +12634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="A13" s="66">
         <v>12</v>
       </c>
@@ -12643,7 +12651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="66">
         <v>13</v>
       </c>
@@ -12660,7 +12668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="66">
         <v>14</v>
       </c>
@@ -12688,10 +12696,10 @@
         <v>77</v>
       </c>
       <c r="G16" s="66" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="66">
         <v>16</v>
       </c>
@@ -12705,7 +12713,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1">
+    <row r="18" spans="1:7">
       <c r="A18" s="66">
         <v>17</v>
       </c>
@@ -12719,7 +12727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7">
       <c r="A19" s="66">
         <v>18</v>
       </c>
@@ -12746,11 +12754,14 @@
       <c r="D20" s="66" t="s">
         <v>93</v>
       </c>
+      <c r="F20" s="66" t="s">
+        <v>109</v>
+      </c>
       <c r="G20" s="66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="66">
         <v>20</v>
       </c>
@@ -12764,7 +12775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22" s="66">
         <v>21</v>
       </c>
@@ -12778,7 +12789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7">
       <c r="A23" s="66">
         <v>22</v>
       </c>
@@ -12806,7 +12817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" s="66">
         <v>24</v>
       </c>
@@ -12820,12 +12831,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="66">
         <v>25</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="66">
         <v>1</v>
@@ -12834,12 +12845,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" s="66">
         <v>26</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" s="66">
         <v>1</v>
@@ -12853,24 +12864,24 @@
         <v>27</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="66">
         <v>2</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G28" s="66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="66">
         <v>28</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="66">
         <v>1</v>
@@ -12879,12 +12890,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="66">
         <v>29</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="66">
         <v>2</v>
@@ -12893,23 +12904,50 @@
         <v>73</v>
       </c>
     </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="66">
+        <v>30</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="66">
+        <v>2</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="66">
+        <v>31</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="66">
+        <v>2</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="66">
+        <v>32</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="66">
+        <v>2</v>
+      </c>
+      <c r="D33" s="66" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G30" xr:uid="{F089E165-4FFF-4F75-95FD-A1C0AB852418}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="15"/>
-        <filter val="19"/>
-        <filter val="23"/>
-        <filter val="27"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Inprocess"/>
-        <filter val="Wait"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G32" xr:uid="{F089E165-4FFF-4F75-95FD-A1C0AB852418}"/>
   <conditionalFormatting sqref="A2:F95">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$D2="reject"</formula>

--- a/BBS report flow (version 1).xlsx
+++ b/BBS report flow (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITH\BBS-App\BBS-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A444C1F-DE43-4CBB-A904-899814BE8AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACAACCD-C789-41E4-84F8-409693647B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FFFA8B83-F3A6-483C-B4BA-3B030823B3B1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Work" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Work!$A$1:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Work!$A$1:$G$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="115">
   <si>
     <t>รายชื่อของแต่ละทีมในกลุ่ม</t>
   </si>
@@ -429,9 +429,6 @@
     <t>เวลากดปุ่ม approve หรือ reject แล้วกด x จะเด้งไปหน้ารายละเอียด (เอาออก)</t>
   </si>
   <si>
-    <t>Inprocess</t>
-  </si>
-  <si>
     <t>เปลี่ยน สรุปผลด่วนเป็น approve แล้ว</t>
   </si>
   <si>
@@ -465,13 +462,7 @@
     <t>รอคำตอบว่าถ้ารายเป็นรายบุคคล she จะทำยังไง</t>
   </si>
   <si>
-    <t>รอนำข้อมูลเข้าจาก she</t>
-  </si>
-  <si>
     <t>เพิ่มรายละเอียดใน form ของ SHE ว่าแจ้งรายงานของกลุ่มใดหรือ คนใด โดยใช้ รหัส</t>
-  </si>
-  <si>
-    <t>ทำหน้ารายงานเรื่องการถูกรายงานของ User</t>
   </si>
   <si>
     <t>ตัวเลือกแผนกมาไม่ครบ</t>
@@ -481,6 +472,27 @@
   </si>
   <si>
     <t>เพิ่มตารางจัดการการรายงานของ SHE</t>
+  </si>
+  <si>
+    <t>เพิ่ม db สำหรับเก็บข้อมูลหัวหน้าชุดและ R เข้ากับพนักงานด้วย ID</t>
+  </si>
+  <si>
+    <t>หน้ากรอกรหัสพนักงานให้แสดงชื่อหัวหน้าชุดด้วย</t>
+  </si>
+  <si>
+    <t>Daff</t>
+  </si>
+  <si>
+    <t>ทำหน้าจัดการพนักงานตามชุด</t>
+  </si>
+  <si>
+    <t>การ get ข้อมูลพนักงานไม่ยอมอัพเดท หรืออัพเดทช้า</t>
+  </si>
+  <si>
+    <t>ทำให้คนอื่นที่ไม่มีในฐานข้อมูลกรอกก็ได้และเก็บประวัติข้อมูลไว้</t>
+  </si>
+  <si>
+    <t>ทำหน้ารายงานเรื่องการถูกรายงานจาก SHE ของ User</t>
   </si>
 </sst>
 </file>
@@ -867,7 +879,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -983,6 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -10991,7 +11004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED013576-E33F-4364-878A-8AA3E6A2044F}">
   <dimension ref="A2:AG51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
@@ -11469,8 +11482,8 @@
     <row r="18" spans="2:8">
       <c r="B18" s="33"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="38"/>
       <c r="H18" s="40"/>
     </row>
@@ -12423,10 +12436,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F089E165-4FFF-4F75-95FD-A1C0AB852418}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -12596,9 +12609,6 @@
       <c r="D10" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="66">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="66">
@@ -12613,9 +12623,6 @@
       <c r="D11" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="66">
-        <v>2</v>
-      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="66">
@@ -12630,9 +12637,6 @@
       <c r="D12" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="66">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="66">
@@ -12647,9 +12651,6 @@
       <c r="D13" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="66">
-        <v>4</v>
-      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="66">
@@ -12664,9 +12665,6 @@
       <c r="D14" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="66">
-        <v>5</v>
-      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="66">
@@ -12693,10 +12691,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="66" t="s">
-        <v>105</v>
+        <v>73</v>
+      </c>
+      <c r="E16" s="66">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12746,19 +12744,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" s="66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="66" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="E20" s="66">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -12766,7 +12761,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="66">
         <v>1</v>
@@ -12780,7 +12775,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="66">
         <v>3</v>
@@ -12794,7 +12789,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="66">
         <v>3</v>
@@ -12808,13 +12803,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" s="66" t="s">
         <v>77</v>
+      </c>
+      <c r="E24" s="66">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -12822,7 +12820,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="66">
         <v>1</v>
@@ -12836,7 +12834,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" s="66">
         <v>1</v>
@@ -12850,7 +12848,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="66">
         <v>1</v>
@@ -12864,7 +12862,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" s="66">
         <v>2</v>
@@ -12873,7 +12871,7 @@
         <v>73</v>
       </c>
       <c r="G28" s="66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -12881,7 +12879,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="66">
         <v>1</v>
@@ -12895,7 +12893,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" s="66">
         <v>2</v>
@@ -12909,13 +12907,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C31" s="66">
         <v>2</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="E31" s="66">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -12923,7 +12924,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C32" s="66">
         <v>2</v>
@@ -12932,12 +12933,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:6">
       <c r="A33" s="66">
         <v>32</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C33" s="66">
         <v>2</v>
@@ -12945,9 +12946,96 @@
       <c r="D33" s="66" t="s">
         <v>77</v>
       </c>
+      <c r="E33" s="66">
+        <v>6</v>
+      </c>
+      <c r="F33" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="65">
+        <v>33</v>
+      </c>
+      <c r="B34" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="65">
+        <v>2</v>
+      </c>
+      <c r="D34" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="65">
+        <v>2</v>
+      </c>
+      <c r="F34" s="65"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="65">
+        <v>34</v>
+      </c>
+      <c r="B35" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="65">
+        <v>2</v>
+      </c>
+      <c r="D35" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="65">
+        <v>4</v>
+      </c>
+      <c r="F35" s="65"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="66">
+        <v>35</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="66">
+        <v>2</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="66">
+        <v>36</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="66">
+        <v>3</v>
+      </c>
+      <c r="D37" s="66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="66">
+        <v>37</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="66">
+        <v>3</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G32" xr:uid="{F089E165-4FFF-4F75-95FD-A1C0AB852418}"/>
+  <autoFilter ref="A1:G38" xr:uid="{F089E165-4FFF-4F75-95FD-A1C0AB852418}"/>
   <conditionalFormatting sqref="A2:F95">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$D2="reject"</formula>

--- a/BBS report flow (version 1).xlsx
+++ b/BBS report flow (version 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITH\BBS-App\BBS-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACAACCD-C789-41E4-84F8-409693647B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2896B928-5A40-47B6-A8BD-390F94BBCBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FFFA8B83-F3A6-483C-B4BA-3B030823B3B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FFFA8B83-F3A6-483C-B4BA-3B030823B3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Report flow" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
   <si>
     <t>รายชื่อของแต่ละทีมในกลุ่ม</t>
   </si>
@@ -493,6 +493,15 @@
   </si>
   <si>
     <t>ทำหน้ารายงานเรื่องการถูกรายงานจาก SHE ของ User</t>
+  </si>
+  <si>
+    <t>กรณีที่พนักงานไม่ได้ระบุสังกัด และตำแหน่งตั้งแต่แรก หลังจากส่งข้อมูลให้ทำการอัพเดทด้วย</t>
+  </si>
+  <si>
+    <t>กลุ่มที่เป็น A0 แต่ไม่ใช้อยู่ในกลุ่ม OE ให้แยกคิดเป็นรายบุคคลตาม OE</t>
+  </si>
+  <si>
+    <t>ช่องเลือกกลุ่มเวลาเจอกลุ่มที่รายการยาวมันล้นจอ ทำให้พิมพ์ค้นหาได้</t>
   </si>
 </sst>
 </file>
@@ -12436,10 +12445,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F089E165-4FFF-4F75-95FD-A1C0AB852418}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -12949,9 +12958,6 @@
       <c r="E33" s="66">
         <v>6</v>
       </c>
-      <c r="F33" s="66" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="65">
@@ -13030,8 +13036,56 @@
       <c r="D38" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="66" t="s">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="66">
+        <v>38</v>
+      </c>
+      <c r="B39" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="66">
+        <v>3</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="66">
+        <v>39</v>
+      </c>
+      <c r="B40" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="66">
+        <v>3</v>
+      </c>
+      <c r="E40" s="66">
+        <v>2</v>
+      </c>
+      <c r="F40" s="66" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="66">
+        <v>40</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="66">
+        <v>2</v>
+      </c>
+      <c r="D41" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="66">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
